--- a/FIT Labs/Lab #4/Homework_1_Solution_CT-084.xlsx
+++ b/FIT Labs/Lab #4/Homework_1_Solution_CT-084.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python Programing\NED-Submissions\FIT Labs\Lab #4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD684086-4FC6-4C82-BCED-6DEEF601B4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FFB745-9F22-46C8-A33E-B1A67ED837F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>TEMPERATURE CONVERTER</t>
   </si>
@@ -47,12 +47,21 @@
   <si>
     <t>WEATHER CONDITIONS --&gt;</t>
   </si>
+  <si>
+    <t>MAGIC SQUARE PUZZLE</t>
+  </si>
+  <si>
+    <t>RESULT::</t>
+  </si>
+  <si>
+    <t>==</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,8 +69,54 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="48"/>
+      <color theme="1"/>
+      <name val="Onyx"/>
+      <family val="5"/>
+    </font>
+    <font>
+      <sz val="48"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Onyx"/>
+      <family val="5"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Onyx"/>
+      <family val="5"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Onyx"/>
+      <family val="5"/>
+    </font>
+    <font>
+      <sz val="48"/>
+      <color theme="1"/>
+      <name val="Onyx"/>
+      <family val="5"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -80,8 +135,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -130,6 +191,229 @@
         <color indexed="64"/>
       </right>
       <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -139,25 +423,204 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -439,10 +902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="G1:L7"/>
+  <dimension ref="F1:P34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -450,80 +913,454 @@
     <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G1" s="1" t="s">
+    <row r="1" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="G1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="3"/>
-    </row>
-    <row r="2" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G2" s="4" t="s">
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="7"/>
+    </row>
+    <row r="2" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="G2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="5">
+      <c r="H2" s="8"/>
+      <c r="I2" s="1">
         <v>21</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="5">
+      <c r="K2" s="8"/>
+      <c r="L2" s="1">
         <f>(I2*9/5) +32</f>
         <v>69.8</v>
       </c>
     </row>
-    <row r="3" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G3" s="4" t="s">
+    <row r="3" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="G3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="5">
+      <c r="H3" s="8"/>
+      <c r="I3" s="1">
         <v>101</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="6">
+      <c r="K3" s="8"/>
+      <c r="L3" s="2">
         <f>(I3-32)* 5/9</f>
         <v>38.333333333333336</v>
       </c>
     </row>
-    <row r="6" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G6" s="7">
+    <row r="6" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="G6" s="3">
         <v>1</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="7" t="str">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="3" t="str">
         <f>IF($I$2&gt;35,"HOT",IF($I$2&gt;20,"WARM","COLD"))</f>
         <v>WARM</v>
       </c>
     </row>
-    <row r="7" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G7" s="7">
+    <row r="7" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="G7" s="3">
         <v>2</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="7" t="str">
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="3" t="str">
         <f>IF($L$3&gt;35,"HOT",IF($L$3&gt;20,"WARM","COLD"))</f>
         <v>HOT</v>
       </c>
     </row>
+    <row r="9" spans="6:16" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="6:16" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="6:16" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F12" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="12"/>
+    </row>
+    <row r="13" spans="6:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F13" s="13"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="15"/>
+    </row>
+    <row r="14" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F14" s="13"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="15"/>
+    </row>
+    <row r="15" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F15" s="13"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="15"/>
+    </row>
+    <row r="16" spans="6:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F16" s="16"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="18"/>
+    </row>
+    <row r="17" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F17" s="19"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="21"/>
+    </row>
+    <row r="18" spans="6:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F18" s="22"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="24"/>
+    </row>
+    <row r="19" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F19" s="22"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="38">
+        <v>12</v>
+      </c>
+      <c r="J19" s="38">
+        <v>3</v>
+      </c>
+      <c r="K19" s="39">
+        <v>9</v>
+      </c>
+      <c r="L19" s="70">
+        <f>SUM(I19:K21)</f>
+        <v>24</v>
+      </c>
+      <c r="M19" s="28"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="24"/>
+    </row>
+    <row r="20" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F20" s="22"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="24"/>
+    </row>
+    <row r="21" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F21" s="22"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="24"/>
+    </row>
+    <row r="22" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F22" s="22"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="40">
+        <v>5</v>
+      </c>
+      <c r="J22" s="41">
+        <v>8</v>
+      </c>
+      <c r="K22" s="42">
+        <v>11</v>
+      </c>
+      <c r="L22" s="72">
+        <f t="shared" ref="L22" si="0">SUM(I22:K24)</f>
+        <v>24</v>
+      </c>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="24"/>
+    </row>
+    <row r="23" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F23" s="22"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="71"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="24"/>
+    </row>
+    <row r="24" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F24" s="22"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="24"/>
+    </row>
+    <row r="25" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F25" s="22"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="38">
+        <v>7</v>
+      </c>
+      <c r="J25" s="38">
+        <v>13</v>
+      </c>
+      <c r="K25" s="39">
+        <v>4</v>
+      </c>
+      <c r="L25" s="72">
+        <f>SUM(I25:K27)</f>
+        <v>24</v>
+      </c>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="24"/>
+    </row>
+    <row r="26" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F26" s="22"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="71"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="24"/>
+    </row>
+    <row r="27" spans="6:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F27" s="22"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="73"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="24"/>
+    </row>
+    <row r="28" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F28" s="22"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="45">
+        <f>SUM(I25,J22,K19)</f>
+        <v>24</v>
+      </c>
+      <c r="I28" s="46">
+        <f t="shared" ref="I28:J28" si="1">SUM(I22,I19,I25)</f>
+        <v>24</v>
+      </c>
+      <c r="J28" s="46">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="K28" s="47">
+        <f>SUM(K22,K19,K25)</f>
+        <v>24</v>
+      </c>
+      <c r="L28" s="74">
+        <f>SUM(I19,J22,K25)</f>
+        <v>24</v>
+      </c>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="24"/>
+    </row>
+    <row r="29" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F29" s="22"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="74"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="24"/>
+    </row>
+    <row r="30" spans="6:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F30" s="22"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="75"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="24"/>
+    </row>
+    <row r="31" spans="6:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F31" s="22"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="24"/>
+    </row>
+    <row r="32" spans="6:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F32" s="22"/>
+      <c r="G32" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="32"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="K32" s="55"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="61" t="str">
+        <f>IF(COUNTIF(L19:L22:L25:L28:J28:K28:H28:I28, L19) =8, "YOU WON","YOU LOST")</f>
+        <v>YOU WON</v>
+      </c>
+      <c r="N32" s="62"/>
+      <c r="O32" s="63"/>
+      <c r="P32" s="24"/>
+    </row>
+    <row r="33" spans="6:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F33" s="22"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="64"/>
+      <c r="N33" s="65"/>
+      <c r="O33" s="66"/>
+      <c r="P33" s="24"/>
+    </row>
+    <row r="34" spans="6:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F34" s="25"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="58"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="67"/>
+      <c r="N34" s="68"/>
+      <c r="O34" s="69"/>
+      <c r="P34" s="26"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="28">
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="G32:I34"/>
+    <mergeCell ref="M32:O34"/>
+    <mergeCell ref="J32:L34"/>
+    <mergeCell ref="L22:L24"/>
+    <mergeCell ref="L25:L27"/>
+    <mergeCell ref="L28:L30"/>
+    <mergeCell ref="K28:K30"/>
+    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="K22:K24"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="F12:P16"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="L19:L21"/>
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="G1:L1"/>
@@ -533,5 +1370,6 @@
     <mergeCell ref="J3:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>